--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yearly Course Materials\Fall2021\CMPE493\CMPE493-Term-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD50B8-F557-4C32-A242-FECF7CA12922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DA763-BB10-4284-9FF3-6917C4A7669E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11928" yWindow="876" windowWidth="14592" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8448" yWindow="1392" windowWidth="14592" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -33,15 +33,6 @@
     <t>SVM Linear</t>
   </si>
   <si>
-    <t>SVM Poly</t>
-  </si>
-  <si>
-    <t>SVM rbf</t>
-  </si>
-  <si>
-    <t>SVM sigmoid</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -85,6 +76,93 @@
   </si>
   <si>
     <t>0.5609</t>
+  </si>
+  <si>
+    <t>0.4858</t>
+  </si>
+  <si>
+    <t>0.4221</t>
+  </si>
+  <si>
+    <t>0.4517</t>
+  </si>
+  <si>
+    <t>0.0936</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.0839</t>
+  </si>
+  <si>
+    <t>0.5421</t>
+  </si>
+  <si>
+    <t>0.4576</t>
+  </si>
+  <si>
+    <t>0.4963</t>
+  </si>
+  <si>
+    <t>0.4408</t>
+  </si>
+  <si>
+    <t>0.3983</t>
+  </si>
+  <si>
+    <t>0.4185</t>
+  </si>
+  <si>
+    <t>SVM Polynomial</t>
+  </si>
+  <si>
+    <t>SVM RBF</t>
+  </si>
+  <si>
+    <t>0.4413</t>
+  </si>
+  <si>
+    <t>0.3978</t>
+  </si>
+  <si>
+    <t>0.4184</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.2012</t>
+  </si>
+  <si>
+    <t>0.2069</t>
+  </si>
+  <si>
+    <t>0.2999</t>
+  </si>
+  <si>
+    <t>0.2444</t>
+  </si>
+  <si>
+    <t>0.2693</t>
+  </si>
+  <si>
+    <t>0.6482</t>
+  </si>
+  <si>
+    <t>0.5557</t>
+  </si>
+  <si>
+    <t>0.5984</t>
+  </si>
+  <si>
+    <t>0.6322</t>
+  </si>
+  <si>
+    <t>0.5406</t>
+  </si>
+  <si>
+    <t>0.5828</t>
   </si>
 </sst>
 </file>
@@ -402,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:J13"/>
+  <dimension ref="A7:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,94 +495,170 @@
   <sheetData>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yearly Course Materials\Fall2021\CMPE493\CMPE493-Term-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DA763-BB10-4284-9FF3-6917C4A7669E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F364A1-4C1F-4EC2-9AC2-C80EDE48FE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8448" yWindow="1392" windowWidth="14592" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -163,6 +163,156 @@
   </si>
   <si>
     <t>0.5828</t>
+  </si>
+  <si>
+    <t>SVM Linear Unigram</t>
+  </si>
+  <si>
+    <t>Naïve Bayes Unigram + Bigram</t>
+  </si>
+  <si>
+    <t>Naïve Bayes Unigram</t>
+  </si>
+  <si>
+    <t>SVM Linear Unigram + Bigram</t>
+  </si>
+  <si>
+    <t>We can see that bigram only is really bad</t>
+  </si>
+  <si>
+    <t>Also that polynomial and RBF kernelled SVMs are also giving worse results</t>
+  </si>
+  <si>
+    <t>Unigram 2xTitle</t>
+  </si>
+  <si>
+    <t>Unigram + Bigram 2xTitle</t>
+  </si>
+  <si>
+    <t>0.6301</t>
+  </si>
+  <si>
+    <t>0.5397</t>
+  </si>
+  <si>
+    <t>0.5814</t>
+  </si>
+  <si>
+    <t>Top 4 Ranked</t>
+  </si>
+  <si>
+    <t>REASONING</t>
+  </si>
+  <si>
+    <t>TRY DOUBLING TITLE WEIGHT</t>
+  </si>
+  <si>
+    <t>Because maybe titles give more direct information about the paper compared to the abstract</t>
+  </si>
+  <si>
+    <t>Equal weight results are repeated here for comparison</t>
+  </si>
+  <si>
+    <t>0.6474</t>
+  </si>
+  <si>
+    <t>0.5558</t>
+  </si>
+  <si>
+    <t>0.5981</t>
+  </si>
+  <si>
+    <t>All tests are with min_df=10, we wanted to try with lower values but RAM needed was over our computers capacity for bigrams</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.5245</t>
+  </si>
+  <si>
+    <t>0.5627</t>
+  </si>
+  <si>
+    <t>0.7125</t>
+  </si>
+  <si>
+    <t>0.6019</t>
+  </si>
+  <si>
+    <t>0.6525</t>
+  </si>
+  <si>
+    <t>As seen here, doubling the title weight made Unigram SVM better by a meaningful amount  (0.02). On other 3 options we picked for this phase it did not change much (&lt; 0.01).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a result we decided that SVM linear model with doubled title weights is the best option out of our trials. Since doubling the weight is arbitrary it will be a good idea to try even higher weights as long as the F-score gets better. </t>
+  </si>
+  <si>
+    <t>Unigram 4xTitle</t>
+  </si>
+  <si>
+    <t>0.7179</t>
+  </si>
+  <si>
+    <t>0.6059</t>
+  </si>
+  <si>
+    <t>0.6572</t>
+  </si>
+  <si>
+    <t>Unigram 8xTitle</t>
+  </si>
+  <si>
+    <t>0.7129</t>
+  </si>
+  <si>
+    <t>0.6003</t>
+  </si>
+  <si>
+    <t>0.6518</t>
+  </si>
+  <si>
+    <t>0.7145</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.6534</t>
+  </si>
+  <si>
+    <t>Unigram 6xTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The F-score peaks around quadruple weight. Even though this parameter can be set to a rational number, going into that much tuning will not affect the result much since the changes are already small. </t>
+  </si>
+  <si>
+    <t>For our final exploration we will change the amount features we use for the SVM Linear Unigram 4xTitle method.</t>
+  </si>
+  <si>
+    <t>SVM Linear Unigram 4xTitle</t>
+  </si>
+  <si>
+    <t>100 Features</t>
+  </si>
+  <si>
+    <t>200 Features</t>
+  </si>
+  <si>
+    <t>0.8029</t>
+  </si>
+  <si>
+    <t>0.6719</t>
+  </si>
+  <si>
+    <t>0.7316</t>
+  </si>
+  <si>
+    <t>300 Features</t>
+  </si>
+  <si>
+    <t>As we get more features the score goes up. This effect must also diminish at some point but with our computing limits I do not think we are close to that. 300 features took around ?? minutes.</t>
   </si>
 </sst>
 </file>
@@ -480,19 +630,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:J12"/>
+  <dimension ref="A4:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
@@ -659,6 +814,382 @@
       </c>
       <c r="J12" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yearly Course Materials\Fall2021\CMPE493\CMPE493-Term-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F364A1-4C1F-4EC2-9AC2-C80EDE48FE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F50B75-FAF5-470E-9C46-E59B85778772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -312,7 +312,16 @@
     <t>300 Features</t>
   </si>
   <si>
-    <t>As we get more features the score goes up. This effect must also diminish at some point but with our computing limits I do not think we are close to that. 300 features took around ?? minutes.</t>
+    <t>0.8221</t>
+  </si>
+  <si>
+    <t>0.6885</t>
+  </si>
+  <si>
+    <t>0.7494</t>
+  </si>
+  <si>
+    <t>As we get more features the score goes up. This effect must also diminish at some point but with our computing limits I do not think we are close to that. 300 features took more than an hour to train.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
   <dimension ref="A4:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,6 +1172,15 @@
       <c r="G43" t="s">
         <v>4</v>
       </c>
+      <c r="H43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1186,10 +1204,19 @@
       <c r="G44" t="s">
         <v>93</v>
       </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
